--- a/data/134/DEUSTATIS/old/National accounts - saving of households quarters.xlsx
+++ b/data/134/DEUSTATIS/old/National accounts - saving of households quarters.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="66">
   <si>
     <t>National accounts - Disposable income, saving of households:
 Germany, quarters, original and adjusted data</t>
@@ -210,7 +210,7 @@
     <t>Including non-profit institutions serving households.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 09:45:57</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:48:52</t>
   </si>
 </sst>
 </file>
@@ -3838,13 +3838,13 @@
         <v>509.068</v>
       </c>
       <c r="DS7" t="n" s="11">
-        <v>445.261</v>
+        <v>445.246</v>
       </c>
       <c r="DT7" t="n" s="11">
-        <v>461.091</v>
-      </c>
-      <c r="DU7" t="s" s="11">
-        <v>43</v>
+        <v>463.051</v>
+      </c>
+      <c r="DU7" t="n" s="11">
+        <v>476.611</v>
       </c>
       <c r="DV7" t="s" s="11">
         <v>43</v>
@@ -4218,13 +4218,13 @@
         <v>91.154</v>
       </c>
       <c r="DS8" t="n" s="11">
-        <v>83.283</v>
+        <v>83.273</v>
       </c>
       <c r="DT8" t="n" s="11">
-        <v>85.894</v>
-      </c>
-      <c r="DU8" t="s" s="11">
-        <v>43</v>
+        <v>85.976</v>
+      </c>
+      <c r="DU8" t="n" s="11">
+        <v>85.291</v>
       </c>
       <c r="DV8" t="s" s="11">
         <v>43</v>
@@ -4598,13 +4598,13 @@
         <v>417.914</v>
       </c>
       <c r="DS9" t="n" s="11">
-        <v>361.978</v>
+        <v>361.973</v>
       </c>
       <c r="DT9" t="n" s="11">
-        <v>375.197</v>
-      </c>
-      <c r="DU9" t="s" s="11">
-        <v>43</v>
+        <v>377.075</v>
+      </c>
+      <c r="DU9" t="n" s="11">
+        <v>391.32</v>
       </c>
       <c r="DV9" t="s" s="11">
         <v>43</v>
@@ -4978,13 +4978,13 @@
         <v>135.859</v>
       </c>
       <c r="DS10" t="n" s="11">
-        <v>116.922</v>
+        <v>116.923</v>
       </c>
       <c r="DT10" t="n" s="11">
-        <v>125.211</v>
-      </c>
-      <c r="DU10" t="s" s="11">
-        <v>43</v>
+        <v>126.239</v>
+      </c>
+      <c r="DU10" t="n" s="11">
+        <v>121.254</v>
       </c>
       <c r="DV10" t="s" s="11">
         <v>43</v>
@@ -5358,13 +5358,13 @@
         <v>282.055</v>
       </c>
       <c r="DS11" t="n" s="11">
-        <v>245.056</v>
+        <v>245.05</v>
       </c>
       <c r="DT11" t="n" s="11">
-        <v>249.986</v>
-      </c>
-      <c r="DU11" t="s" s="11">
-        <v>43</v>
+        <v>250.836</v>
+      </c>
+      <c r="DU11" t="n" s="11">
+        <v>270.066</v>
       </c>
       <c r="DV11" t="s" s="11">
         <v>43</v>
@@ -5741,10 +5741,10 @@
         <v>172.505</v>
       </c>
       <c r="DT12" t="n" s="11">
-        <v>170.648</v>
-      </c>
-      <c r="DU12" t="s" s="11">
-        <v>43</v>
+        <v>170.252</v>
+      </c>
+      <c r="DU12" t="n" s="11">
+        <v>166.491</v>
       </c>
       <c r="DV12" t="s" s="11">
         <v>43</v>
@@ -6118,13 +6118,13 @@
         <v>35.533</v>
       </c>
       <c r="DS13" t="n" s="11">
-        <v>35.765</v>
+        <v>35.706</v>
       </c>
       <c r="DT13" t="n" s="11">
-        <v>35.49</v>
-      </c>
-      <c r="DU13" t="s" s="11">
-        <v>43</v>
+        <v>35.646</v>
+      </c>
+      <c r="DU13" t="n" s="11">
+        <v>35.409</v>
       </c>
       <c r="DV13" t="s" s="11">
         <v>43</v>
@@ -6498,13 +6498,13 @@
         <v>413.337</v>
       </c>
       <c r="DS14" t="n" s="11">
-        <v>381.796</v>
+        <v>381.849</v>
       </c>
       <c r="DT14" t="n" s="11">
-        <v>385.144</v>
-      </c>
-      <c r="DU14" t="s" s="11">
-        <v>43</v>
+        <v>385.442</v>
+      </c>
+      <c r="DU14" t="n" s="11">
+        <v>401.148</v>
       </c>
       <c r="DV14" t="s" s="11">
         <v>43</v>
@@ -6878,13 +6878,13 @@
         <v>110.085</v>
       </c>
       <c r="DS15" t="n" s="11">
-        <v>148.86</v>
+        <v>148.464</v>
       </c>
       <c r="DT15" t="n" s="11">
-        <v>128.641</v>
-      </c>
-      <c r="DU15" t="s" s="11">
-        <v>43</v>
+        <v>130.37</v>
+      </c>
+      <c r="DU15" t="n" s="11">
+        <v>135.17</v>
       </c>
       <c r="DV15" t="s" s="11">
         <v>43</v>
@@ -7258,13 +7258,13 @@
         <v>-24.645</v>
       </c>
       <c r="DS16" t="n" s="11">
-        <v>-27.82</v>
+        <v>-27.73</v>
       </c>
       <c r="DT16" t="n" s="11">
-        <v>-20.427</v>
-      </c>
-      <c r="DU16" t="s" s="11">
-        <v>43</v>
+        <v>-20.75</v>
+      </c>
+      <c r="DU16" t="n" s="11">
+        <v>-29.488</v>
       </c>
       <c r="DV16" t="s" s="11">
         <v>43</v>
@@ -7638,13 +7638,13 @@
         <v>498.777</v>
       </c>
       <c r="DS17" t="n" s="11">
-        <v>502.836</v>
+        <v>502.583</v>
       </c>
       <c r="DT17" t="n" s="11">
-        <v>493.358</v>
-      </c>
-      <c r="DU17" t="s" s="11">
-        <v>43</v>
+        <v>495.062</v>
+      </c>
+      <c r="DU17" t="n" s="11">
+        <v>506.83</v>
       </c>
       <c r="DV17" t="s" s="11">
         <v>43</v>
@@ -8018,13 +8018,13 @@
         <v>624.845</v>
       </c>
       <c r="DS18" t="n" s="11">
-        <v>622.12</v>
+        <v>621.835</v>
       </c>
       <c r="DT18" t="n" s="11">
-        <v>613.886</v>
-      </c>
-      <c r="DU18" t="s" s="11">
-        <v>43</v>
+        <v>618.503</v>
+      </c>
+      <c r="DU18" t="n" s="11">
+        <v>632.46</v>
       </c>
       <c r="DV18" t="s" s="11">
         <v>43</v>
@@ -8398,13 +8398,13 @@
         <v>16.087</v>
       </c>
       <c r="DS19" t="n" s="11">
-        <v>14.641</v>
+        <v>14.644</v>
       </c>
       <c r="DT19" t="n" s="11">
-        <v>14.894</v>
-      </c>
-      <c r="DU19" t="s" s="11">
-        <v>43</v>
+        <v>14.872</v>
+      </c>
+      <c r="DU19" t="n" s="11">
+        <v>14.961</v>
       </c>
       <c r="DV19" t="s" s="11">
         <v>43</v>
@@ -8778,13 +8778,13 @@
         <v>78.935</v>
       </c>
       <c r="DS20" t="n" s="11">
-        <v>113.734</v>
+        <v>113.869</v>
       </c>
       <c r="DT20" t="n" s="11">
-        <v>82.639</v>
-      </c>
-      <c r="DU20" t="s" s="11">
-        <v>43</v>
+        <v>82.984</v>
+      </c>
+      <c r="DU20" t="n" s="11">
+        <v>56.043</v>
       </c>
       <c r="DV20" t="s" s="11">
         <v>43</v>
@@ -9158,13 +9158,13 @@
         <v>514.864</v>
       </c>
       <c r="DS21" t="n" s="11">
-        <v>517.477</v>
+        <v>517.227</v>
       </c>
       <c r="DT21" t="n" s="11">
-        <v>508.252</v>
-      </c>
-      <c r="DU21" t="s" s="11">
-        <v>43</v>
+        <v>509.934</v>
+      </c>
+      <c r="DU21" t="n" s="11">
+        <v>521.791</v>
       </c>
       <c r="DV21" t="s" s="11">
         <v>43</v>
@@ -9543,8 +9543,8 @@
       <c r="DT22" t="n" s="11">
         <v>16.3</v>
       </c>
-      <c r="DU22" t="s" s="11">
-        <v>43</v>
+      <c r="DU22" t="n" s="11">
+        <v>10.7</v>
       </c>
       <c r="DV22" t="s" s="11">
         <v>43</v>
@@ -9923,13 +9923,13 @@
         <v>470.538</v>
       </c>
       <c r="DS24" t="n" s="11">
-        <v>467.966</v>
+        <v>467.948</v>
       </c>
       <c r="DT24" t="n" s="11">
-        <v>469.306</v>
-      </c>
-      <c r="DU24" t="s" s="11">
-        <v>43</v>
+        <v>471.253</v>
+      </c>
+      <c r="DU24" t="n" s="11">
+        <v>484.365</v>
       </c>
       <c r="DV24" t="s" s="11">
         <v>43</v>
@@ -10303,13 +10303,13 @@
         <v>87.898</v>
       </c>
       <c r="DS25" t="n" s="11">
-        <v>85.063</v>
+        <v>85.05</v>
       </c>
       <c r="DT25" t="n" s="11">
-        <v>84.685</v>
-      </c>
-      <c r="DU25" t="s" s="11">
-        <v>43</v>
+        <v>84.708</v>
+      </c>
+      <c r="DU25" t="n" s="11">
+        <v>87.086</v>
       </c>
       <c r="DV25" t="s" s="11">
         <v>43</v>
@@ -10683,13 +10683,13 @@
         <v>382.64</v>
       </c>
       <c r="DS26" t="n" s="11">
-        <v>382.903</v>
+        <v>382.898</v>
       </c>
       <c r="DT26" t="n" s="11">
-        <v>384.621</v>
-      </c>
-      <c r="DU26" t="s" s="11">
-        <v>43</v>
+        <v>386.545</v>
+      </c>
+      <c r="DU26" t="n" s="11">
+        <v>397.279</v>
       </c>
       <c r="DV26" t="s" s="11">
         <v>43</v>
@@ -11063,13 +11063,13 @@
         <v>122.341</v>
       </c>
       <c r="DS27" t="n" s="11">
-        <v>124.702</v>
+        <v>124.703</v>
       </c>
       <c r="DT27" t="n" s="11">
-        <v>123.863</v>
-      </c>
-      <c r="DU27" t="s" s="11">
-        <v>43</v>
+        <v>124.9</v>
+      </c>
+      <c r="DU27" t="n" s="11">
+        <v>128.855</v>
       </c>
       <c r="DV27" t="s" s="11">
         <v>43</v>
@@ -11443,13 +11443,13 @@
         <v>260.299</v>
       </c>
       <c r="DS28" t="n" s="11">
-        <v>258.201</v>
+        <v>258.195</v>
       </c>
       <c r="DT28" t="n" s="11">
-        <v>260.758</v>
-      </c>
-      <c r="DU28" t="s" s="11">
-        <v>43</v>
+        <v>261.645</v>
+      </c>
+      <c r="DU28" t="n" s="11">
+        <v>268.424</v>
       </c>
       <c r="DV28" t="s" s="11">
         <v>43</v>
@@ -11826,10 +11826,10 @@
         <v>170.086</v>
       </c>
       <c r="DT29" t="n" s="11">
-        <v>171.547</v>
-      </c>
-      <c r="DU29" t="s" s="11">
-        <v>43</v>
+        <v>171.151</v>
+      </c>
+      <c r="DU29" t="n" s="11">
+        <v>166.234</v>
       </c>
       <c r="DV29" t="s" s="11">
         <v>43</v>
@@ -12203,13 +12203,13 @@
         <v>35.381</v>
       </c>
       <c r="DS30" t="n" s="11">
-        <v>35.692</v>
+        <v>35.633</v>
       </c>
       <c r="DT30" t="n" s="11">
-        <v>35.797</v>
-      </c>
-      <c r="DU30" t="s" s="11">
-        <v>43</v>
+        <v>35.953</v>
+      </c>
+      <c r="DU30" t="n" s="11">
+        <v>35.312</v>
       </c>
       <c r="DV30" t="s" s="11">
         <v>43</v>
@@ -12583,13 +12583,13 @@
         <v>393.463</v>
       </c>
       <c r="DS31" t="n" s="11">
-        <v>392.595</v>
+        <v>392.648</v>
       </c>
       <c r="DT31" t="n" s="11">
-        <v>396.508</v>
-      </c>
-      <c r="DU31" t="s" s="11">
-        <v>43</v>
+        <v>396.843</v>
+      </c>
+      <c r="DU31" t="n" s="11">
+        <v>399.346</v>
       </c>
       <c r="DV31" t="s" s="11">
         <v>43</v>
@@ -12963,13 +12963,13 @@
         <v>127.001</v>
       </c>
       <c r="DS32" t="n" s="11">
-        <v>130.143</v>
+        <v>129.796</v>
       </c>
       <c r="DT32" t="n" s="11">
-        <v>126.888</v>
-      </c>
-      <c r="DU32" t="s" s="11">
-        <v>43</v>
+        <v>128.594</v>
+      </c>
+      <c r="DU32" t="n" s="11">
+        <v>140.822</v>
       </c>
       <c r="DV32" t="s" s="11">
         <v>43</v>
@@ -13343,13 +13343,13 @@
         <v>-23.648</v>
       </c>
       <c r="DS33" t="n" s="11">
-        <v>-26.68</v>
+        <v>-26.64</v>
       </c>
       <c r="DT33" t="n" s="11">
-        <v>-24.702</v>
-      </c>
-      <c r="DU33" t="s" s="11">
-        <v>43</v>
+        <v>-25.046</v>
+      </c>
+      <c r="DU33" t="n" s="11">
+        <v>-30.986</v>
       </c>
       <c r="DV33" t="s" s="11">
         <v>43</v>
@@ -13723,13 +13723,13 @@
         <v>496.816</v>
       </c>
       <c r="DS34" t="n" s="11">
-        <v>496.058</v>
+        <v>495.804</v>
       </c>
       <c r="DT34" t="n" s="11">
-        <v>498.694</v>
-      </c>
-      <c r="DU34" t="s" s="11">
-        <v>43</v>
+        <v>500.391</v>
+      </c>
+      <c r="DU34" t="n" s="11">
+        <v>509.182</v>
       </c>
       <c r="DV34" t="s" s="11">
         <v>43</v>
@@ -14103,13 +14103,13 @@
         <v>618.236</v>
       </c>
       <c r="DS35" t="n" s="11">
-        <v>616.061</v>
+        <v>615.777</v>
       </c>
       <c r="DT35" t="n" s="11">
-        <v>621.1</v>
-      </c>
-      <c r="DU35" t="s" s="11">
-        <v>43</v>
+        <v>625.744</v>
+      </c>
+      <c r="DU35" t="n" s="11">
+        <v>636.756</v>
       </c>
       <c r="DV35" t="s" s="11">
         <v>43</v>
@@ -14483,13 +14483,13 @@
         <v>15.078</v>
       </c>
       <c r="DS36" t="n" s="11">
-        <v>15.164</v>
+        <v>15.168</v>
       </c>
       <c r="DT36" t="n" s="11">
-        <v>15.135</v>
-      </c>
-      <c r="DU36" t="s" s="11">
-        <v>43</v>
+        <v>15.113</v>
+      </c>
+      <c r="DU36" t="n" s="11">
+        <v>15.231</v>
       </c>
       <c r="DV36" t="s" s="11">
         <v>43</v>
@@ -14863,13 +14863,13 @@
         <v>84.1</v>
       </c>
       <c r="DS37" t="n" s="11">
-        <v>96.97</v>
+        <v>97.106</v>
       </c>
       <c r="DT37" t="n" s="11">
-        <v>86.261</v>
-      </c>
-      <c r="DU37" t="s" s="11">
-        <v>43</v>
+        <v>86.606</v>
+      </c>
+      <c r="DU37" t="n" s="11">
+        <v>64.057</v>
       </c>
       <c r="DV37" t="s" s="11">
         <v>43</v>
@@ -15243,13 +15243,13 @@
         <v>511.894</v>
       </c>
       <c r="DS38" t="n" s="11">
-        <v>511.222</v>
+        <v>510.972</v>
       </c>
       <c r="DT38" t="n" s="11">
-        <v>513.829</v>
-      </c>
-      <c r="DU38" t="s" s="11">
-        <v>43</v>
+        <v>515.504</v>
+      </c>
+      <c r="DU38" t="n" s="11">
+        <v>524.413</v>
       </c>
       <c r="DV38" t="s" s="11">
         <v>43</v>
@@ -15628,8 +15628,8 @@
       <c r="DT39" t="n" s="11">
         <v>16.8</v>
       </c>
-      <c r="DU39" t="s" s="11">
-        <v>43</v>
+      <c r="DU39" t="n" s="11">
+        <v>12.2</v>
       </c>
       <c r="DV39" t="s" s="11">
         <v>43</v>
@@ -15648,61 +15648,61 @@
         <v>42</v>
       </c>
       <c r="C41" t="n" s="11">
-        <v>207.636</v>
+        <v>207.629</v>
       </c>
       <c r="D41" t="n" s="11">
-        <v>214.187</v>
+        <v>214.096</v>
       </c>
       <c r="E41" t="n" s="11">
-        <v>214.529</v>
+        <v>214.413</v>
       </c>
       <c r="F41" t="n" s="11">
-        <v>219.316</v>
+        <v>219.538</v>
       </c>
       <c r="G41" t="n" s="11">
-        <v>226.026</v>
+        <v>226.056</v>
       </c>
       <c r="H41" t="n" s="11">
-        <v>229.519</v>
+        <v>229.392</v>
       </c>
       <c r="I41" t="n" s="11">
-        <v>235.537</v>
+        <v>235.394</v>
       </c>
       <c r="J41" t="n" s="11">
-        <v>236.243</v>
+        <v>236.467</v>
       </c>
       <c r="K41" t="n" s="11">
-        <v>233.68</v>
+        <v>233.742</v>
       </c>
       <c r="L41" t="n" s="11">
-        <v>237.435</v>
+        <v>237.299</v>
       </c>
       <c r="M41" t="n" s="11">
-        <v>237.855</v>
+        <v>237.759</v>
       </c>
       <c r="N41" t="n" s="11">
-        <v>240.096</v>
+        <v>240.221</v>
       </c>
       <c r="O41" t="n" s="11">
-        <v>241.807</v>
+        <v>241.847</v>
       </c>
       <c r="P41" t="n" s="11">
-        <v>241.95</v>
+        <v>241.894</v>
       </c>
       <c r="Q41" t="n" s="11">
-        <v>243.675</v>
+        <v>243.659</v>
       </c>
       <c r="R41" t="n" s="11">
-        <v>246.836</v>
+        <v>246.848</v>
       </c>
       <c r="S41" t="n" s="11">
-        <v>248.472</v>
+        <v>248.479</v>
       </c>
       <c r="T41" t="n" s="11">
-        <v>251.894</v>
+        <v>251.892</v>
       </c>
       <c r="U41" t="n" s="11">
-        <v>253.315</v>
+        <v>253.314</v>
       </c>
       <c r="V41" t="n" s="11">
         <v>255.29</v>
@@ -15831,70 +15831,70 @@
         <v>289.219</v>
       </c>
       <c r="BL41" t="n" s="11">
-        <v>291.147</v>
+        <v>291.146</v>
       </c>
       <c r="BM41" t="n" s="11">
-        <v>294.15</v>
+        <v>294.149</v>
       </c>
       <c r="BN41" t="n" s="11">
-        <v>295.546</v>
+        <v>295.545</v>
       </c>
       <c r="BO41" t="n" s="11">
-        <v>297.758</v>
+        <v>297.767</v>
       </c>
       <c r="BP41" t="n" s="11">
-        <v>299.984</v>
+        <v>299.983</v>
       </c>
       <c r="BQ41" t="n" s="11">
-        <v>301.913</v>
+        <v>301.895</v>
       </c>
       <c r="BR41" t="n" s="11">
-        <v>304.61</v>
+        <v>304.574</v>
       </c>
       <c r="BS41" t="n" s="11">
-        <v>308.686</v>
+        <v>308.794</v>
       </c>
       <c r="BT41" t="n" s="11">
-        <v>312.135</v>
+        <v>312.1</v>
       </c>
       <c r="BU41" t="n" s="11">
-        <v>313.945</v>
+        <v>313.893</v>
       </c>
       <c r="BV41" t="n" s="11">
-        <v>316.243</v>
+        <v>316.172</v>
       </c>
       <c r="BW41" t="n" s="11">
-        <v>313.971</v>
+        <v>314.166</v>
       </c>
       <c r="BX41" t="n" s="11">
-        <v>313.622</v>
+        <v>313.551</v>
       </c>
       <c r="BY41" t="n" s="11">
-        <v>314.988</v>
+        <v>314.936</v>
       </c>
       <c r="BZ41" t="n" s="11">
-        <v>315.756</v>
+        <v>315.721</v>
       </c>
       <c r="CA41" t="n" s="11">
-        <v>319.159</v>
+        <v>319.266</v>
       </c>
       <c r="CB41" t="n" s="11">
-        <v>322.053</v>
+        <v>322.017</v>
       </c>
       <c r="CC41" t="n" s="11">
-        <v>325.389</v>
+        <v>325.371</v>
       </c>
       <c r="CD41" t="n" s="11">
         <v>329.008</v>
       </c>
       <c r="CE41" t="n" s="11">
-        <v>333.129</v>
+        <v>333.138</v>
       </c>
       <c r="CF41" t="n" s="11">
         <v>336.606</v>
       </c>
       <c r="CG41" t="n" s="11">
-        <v>339.434</v>
+        <v>339.433</v>
       </c>
       <c r="CH41" t="n" s="11">
         <v>342.42</v>
@@ -15954,67 +15954,67 @@
         <v>403.556</v>
       </c>
       <c r="DA41" t="n" s="11">
-        <v>408.066</v>
+        <v>408.067</v>
       </c>
       <c r="DB41" t="n" s="11">
-        <v>412.419</v>
+        <v>412.42</v>
       </c>
       <c r="DC41" t="n" s="11">
-        <v>416.992</v>
+        <v>416.993</v>
       </c>
       <c r="DD41" t="n" s="11">
-        <v>421.722</v>
+        <v>421.708</v>
       </c>
       <c r="DE41" t="n" s="11">
         <v>425.857</v>
       </c>
       <c r="DF41" t="n" s="11">
-        <v>431.124</v>
+        <v>431.159</v>
       </c>
       <c r="DG41" t="n" s="11">
-        <v>435.563</v>
+        <v>435.626</v>
       </c>
       <c r="DH41" t="n" s="11">
-        <v>441.09</v>
+        <v>440.858</v>
       </c>
       <c r="DI41" t="n" s="11">
-        <v>445.901</v>
+        <v>445.935</v>
       </c>
       <c r="DJ41" t="n" s="11">
-        <v>450.19</v>
+        <v>450.468</v>
       </c>
       <c r="DK41" t="n" s="11">
-        <v>455.422</v>
+        <v>455.828</v>
       </c>
       <c r="DL41" t="n" s="11">
-        <v>465.633</v>
+        <v>464.32</v>
       </c>
       <c r="DM41" t="n" s="11">
-        <v>466.781</v>
+        <v>466.945</v>
       </c>
       <c r="DN41" t="n" s="11">
-        <v>466.318</v>
+        <v>467.502</v>
       </c>
       <c r="DO41" t="n" s="11">
-        <v>466.931</v>
+        <v>467.981</v>
       </c>
       <c r="DP41" t="n" s="11">
-        <v>454.427</v>
+        <v>452.132</v>
       </c>
       <c r="DQ41" t="n" s="11">
-        <v>463.122</v>
+        <v>463.207</v>
       </c>
       <c r="DR41" t="n" s="11">
-        <v>466.613</v>
+        <v>468.398</v>
       </c>
       <c r="DS41" t="n" s="11">
-        <v>464.886</v>
+        <v>466.323</v>
       </c>
       <c r="DT41" t="n" s="11">
-        <v>477.405</v>
-      </c>
-      <c r="DU41" t="s" s="11">
-        <v>43</v>
+        <v>476.209</v>
+      </c>
+      <c r="DU41" t="n" s="11">
+        <v>483.157</v>
       </c>
       <c r="DV41" t="s" s="11">
         <v>43</v>
@@ -16028,61 +16028,61 @@
         <v>42</v>
       </c>
       <c r="C42" t="n" s="11">
-        <v>36.357</v>
+        <v>36.35</v>
       </c>
       <c r="D42" t="n" s="11">
-        <v>38.571</v>
+        <v>38.48</v>
       </c>
       <c r="E42" t="n" s="11">
-        <v>38.515</v>
+        <v>38.399</v>
       </c>
       <c r="F42" t="n" s="11">
-        <v>39.173</v>
+        <v>39.395</v>
       </c>
       <c r="G42" t="n" s="11">
-        <v>40.0</v>
+        <v>40.03</v>
       </c>
       <c r="H42" t="n" s="11">
-        <v>40.81</v>
+        <v>40.683</v>
       </c>
       <c r="I42" t="n" s="11">
-        <v>42.231</v>
+        <v>42.088</v>
       </c>
       <c r="J42" t="n" s="11">
-        <v>42.583</v>
+        <v>42.807</v>
       </c>
       <c r="K42" t="n" s="11">
-        <v>40.451</v>
+        <v>40.513</v>
       </c>
       <c r="L42" t="n" s="11">
-        <v>42.106</v>
+        <v>41.97</v>
       </c>
       <c r="M42" t="n" s="11">
-        <v>42.149</v>
+        <v>42.053</v>
       </c>
       <c r="N42" t="n" s="11">
-        <v>43.046</v>
+        <v>43.171</v>
       </c>
       <c r="O42" t="n" s="11">
-        <v>43.812</v>
+        <v>43.852</v>
       </c>
       <c r="P42" t="n" s="11">
-        <v>44.579</v>
+        <v>44.523</v>
       </c>
       <c r="Q42" t="n" s="11">
-        <v>44.905</v>
+        <v>44.889</v>
       </c>
       <c r="R42" t="n" s="11">
-        <v>46.195</v>
+        <v>46.207</v>
       </c>
       <c r="S42" t="n" s="11">
-        <v>46.175</v>
+        <v>46.182</v>
       </c>
       <c r="T42" t="n" s="11">
-        <v>47.128</v>
+        <v>47.126</v>
       </c>
       <c r="U42" t="n" s="11">
-        <v>47.713</v>
+        <v>47.712</v>
       </c>
       <c r="V42" t="n" s="11">
         <v>48.563</v>
@@ -16211,70 +16211,70 @@
         <v>55.485</v>
       </c>
       <c r="BL42" t="n" s="11">
-        <v>55.612</v>
+        <v>55.611</v>
       </c>
       <c r="BM42" t="n" s="11">
-        <v>56.244</v>
+        <v>56.243</v>
       </c>
       <c r="BN42" t="n" s="11">
-        <v>56.389</v>
+        <v>56.388</v>
       </c>
       <c r="BO42" t="n" s="11">
-        <v>56.144</v>
+        <v>56.153</v>
       </c>
       <c r="BP42" t="n" s="11">
-        <v>56.222</v>
+        <v>56.221</v>
       </c>
       <c r="BQ42" t="n" s="11">
-        <v>56.618</v>
+        <v>56.6</v>
       </c>
       <c r="BR42" t="n" s="11">
-        <v>56.739</v>
+        <v>56.703</v>
       </c>
       <c r="BS42" t="n" s="11">
-        <v>56.986</v>
+        <v>57.094</v>
       </c>
       <c r="BT42" t="n" s="11">
-        <v>57.896</v>
+        <v>57.861</v>
       </c>
       <c r="BU42" t="n" s="11">
-        <v>58.331</v>
+        <v>58.279</v>
       </c>
       <c r="BV42" t="n" s="11">
-        <v>59.201</v>
+        <v>59.13</v>
       </c>
       <c r="BW42" t="n" s="11">
-        <v>59.029</v>
+        <v>59.224</v>
       </c>
       <c r="BX42" t="n" s="11">
-        <v>59.342</v>
+        <v>59.271</v>
       </c>
       <c r="BY42" t="n" s="11">
-        <v>59.157</v>
+        <v>59.105</v>
       </c>
       <c r="BZ42" t="n" s="11">
-        <v>59.058</v>
+        <v>59.023</v>
       </c>
       <c r="CA42" t="n" s="11">
-        <v>59.876</v>
+        <v>59.983</v>
       </c>
       <c r="CB42" t="n" s="11">
-        <v>60.392</v>
+        <v>60.356</v>
       </c>
       <c r="CC42" t="n" s="11">
-        <v>61.024</v>
+        <v>61.006</v>
       </c>
       <c r="CD42" t="n" s="11">
         <v>61.582</v>
       </c>
       <c r="CE42" t="n" s="11">
-        <v>61.562</v>
+        <v>61.571</v>
       </c>
       <c r="CF42" t="n" s="11">
         <v>61.959</v>
       </c>
       <c r="CG42" t="n" s="11">
-        <v>62.338</v>
+        <v>62.337</v>
       </c>
       <c r="CH42" t="n" s="11">
         <v>62.631</v>
@@ -16334,67 +16334,67 @@
         <v>71.425</v>
       </c>
       <c r="DA42" t="n" s="11">
-        <v>72.292</v>
+        <v>72.293</v>
       </c>
       <c r="DB42" t="n" s="11">
-        <v>72.879</v>
+        <v>72.88</v>
       </c>
       <c r="DC42" t="n" s="11">
-        <v>74.007</v>
+        <v>74.008</v>
       </c>
       <c r="DD42" t="n" s="11">
-        <v>74.982</v>
+        <v>74.968</v>
       </c>
       <c r="DE42" t="n" s="11">
         <v>75.479</v>
       </c>
       <c r="DF42" t="n" s="11">
-        <v>76.449</v>
+        <v>76.484</v>
       </c>
       <c r="DG42" t="n" s="11">
-        <v>76.325</v>
+        <v>76.388</v>
       </c>
       <c r="DH42" t="n" s="11">
-        <v>77.277</v>
+        <v>77.045</v>
       </c>
       <c r="DI42" t="n" s="11">
-        <v>78.264</v>
+        <v>78.297</v>
       </c>
       <c r="DJ42" t="n" s="11">
-        <v>79.231</v>
+        <v>79.518</v>
       </c>
       <c r="DK42" t="n" s="11">
-        <v>81.592</v>
+        <v>82.033</v>
       </c>
       <c r="DL42" t="n" s="11">
-        <v>81.948</v>
+        <v>80.731</v>
       </c>
       <c r="DM42" t="n" s="11">
         <v>83.76</v>
       </c>
       <c r="DN42" t="n" s="11">
-        <v>84.366</v>
+        <v>85.359</v>
       </c>
       <c r="DO42" t="n" s="11">
-        <v>83.624</v>
+        <v>84.718</v>
       </c>
       <c r="DP42" t="n" s="11">
-        <v>83.116</v>
+        <v>80.727</v>
       </c>
       <c r="DQ42" t="n" s="11">
-        <v>85.508</v>
+        <v>85.323</v>
       </c>
       <c r="DR42" t="n" s="11">
-        <v>85.952</v>
+        <v>87.43</v>
       </c>
       <c r="DS42" t="n" s="11">
-        <v>85.603</v>
+        <v>86.883</v>
       </c>
       <c r="DT42" t="n" s="11">
-        <v>85.864</v>
-      </c>
-      <c r="DU42" t="s" s="11">
-        <v>43</v>
+        <v>83.15</v>
+      </c>
+      <c r="DU42" t="n" s="11">
+        <v>87.857</v>
       </c>
       <c r="DV42" t="s" s="11">
         <v>43</v>
@@ -16738,43 +16738,43 @@
         <v>363.813</v>
       </c>
       <c r="DI43" t="n" s="11">
-        <v>367.637</v>
+        <v>367.638</v>
       </c>
       <c r="DJ43" t="n" s="11">
-        <v>370.959</v>
+        <v>370.95</v>
       </c>
       <c r="DK43" t="n" s="11">
-        <v>373.83</v>
+        <v>373.795</v>
       </c>
       <c r="DL43" t="n" s="11">
-        <v>383.685</v>
+        <v>383.589</v>
       </c>
       <c r="DM43" t="n" s="11">
-        <v>383.021</v>
+        <v>383.185</v>
       </c>
       <c r="DN43" t="n" s="11">
-        <v>381.952</v>
+        <v>382.143</v>
       </c>
       <c r="DO43" t="n" s="11">
-        <v>383.307</v>
+        <v>383.263</v>
       </c>
       <c r="DP43" t="n" s="11">
-        <v>371.311</v>
+        <v>371.405</v>
       </c>
       <c r="DQ43" t="n" s="11">
-        <v>377.614</v>
+        <v>377.884</v>
       </c>
       <c r="DR43" t="n" s="11">
-        <v>380.661</v>
+        <v>380.968</v>
       </c>
       <c r="DS43" t="n" s="11">
-        <v>379.283</v>
+        <v>379.44</v>
       </c>
       <c r="DT43" t="n" s="11">
-        <v>391.541</v>
-      </c>
-      <c r="DU43" t="s" s="11">
-        <v>43</v>
+        <v>393.059</v>
+      </c>
+      <c r="DU43" t="n" s="11">
+        <v>395.3</v>
       </c>
       <c r="DV43" t="s" s="11">
         <v>43</v>
@@ -17118,43 +17118,43 @@
         <v>121.037</v>
       </c>
       <c r="DI44" t="n" s="11">
-        <v>122.303</v>
+        <v>122.297</v>
       </c>
       <c r="DJ44" t="n" s="11">
-        <v>123.061</v>
+        <v>123.031</v>
       </c>
       <c r="DK44" t="n" s="11">
-        <v>123.148</v>
+        <v>123.085</v>
       </c>
       <c r="DL44" t="n" s="11">
-        <v>126.466</v>
+        <v>126.557</v>
       </c>
       <c r="DM44" t="n" s="11">
-        <v>125.818</v>
+        <v>126.035</v>
       </c>
       <c r="DN44" t="n" s="11">
-        <v>126.127</v>
+        <v>126.039</v>
       </c>
       <c r="DO44" t="n" s="11">
-        <v>126.804</v>
+        <v>125.791</v>
       </c>
       <c r="DP44" t="n" s="11">
-        <v>120.105</v>
+        <v>121.213</v>
       </c>
       <c r="DQ44" t="n" s="11">
-        <v>122.372</v>
+        <v>122.709</v>
       </c>
       <c r="DR44" t="n" s="11">
-        <v>123.054</v>
+        <v>122.924</v>
       </c>
       <c r="DS44" t="n" s="11">
-        <v>124.453</v>
+        <v>122.769</v>
       </c>
       <c r="DT44" t="n" s="11">
-        <v>123.55</v>
-      </c>
-      <c r="DU44" t="s" s="11">
-        <v>43</v>
+        <v>126.647</v>
+      </c>
+      <c r="DU44" t="n" s="11">
+        <v>127.937</v>
       </c>
       <c r="DV44" t="s" s="11">
         <v>43</v>
@@ -17498,43 +17498,43 @@
         <v>242.776</v>
       </c>
       <c r="DI45" t="n" s="11">
-        <v>245.334</v>
+        <v>245.341</v>
       </c>
       <c r="DJ45" t="n" s="11">
-        <v>247.898</v>
+        <v>247.919</v>
       </c>
       <c r="DK45" t="n" s="11">
-        <v>250.682</v>
+        <v>250.71</v>
       </c>
       <c r="DL45" t="n" s="11">
-        <v>257.219</v>
+        <v>257.032</v>
       </c>
       <c r="DM45" t="n" s="11">
-        <v>257.203</v>
+        <v>257.15</v>
       </c>
       <c r="DN45" t="n" s="11">
-        <v>255.825</v>
+        <v>256.104</v>
       </c>
       <c r="DO45" t="n" s="11">
-        <v>256.503</v>
+        <v>257.472</v>
       </c>
       <c r="DP45" t="n" s="11">
-        <v>251.206</v>
+        <v>250.192</v>
       </c>
       <c r="DQ45" t="n" s="11">
-        <v>255.242</v>
+        <v>255.175</v>
       </c>
       <c r="DR45" t="n" s="11">
-        <v>257.607</v>
+        <v>258.044</v>
       </c>
       <c r="DS45" t="n" s="11">
-        <v>254.83</v>
+        <v>256.671</v>
       </c>
       <c r="DT45" t="n" s="11">
-        <v>267.991</v>
-      </c>
-      <c r="DU45" t="s" s="11">
-        <v>43</v>
+        <v>266.412</v>
+      </c>
+      <c r="DU45" t="n" s="11">
+        <v>267.363</v>
       </c>
       <c r="DV45" t="s" s="11">
         <v>43</v>
@@ -17875,46 +17875,46 @@
         <v>143.815</v>
       </c>
       <c r="DH46" t="n" s="11">
-        <v>144.521</v>
+        <v>144.52</v>
       </c>
       <c r="DI46" t="n" s="11">
-        <v>145.857</v>
+        <v>145.856</v>
       </c>
       <c r="DJ46" t="n" s="11">
-        <v>147.608</v>
+        <v>147.607</v>
       </c>
       <c r="DK46" t="n" s="11">
-        <v>149.834</v>
+        <v>149.841</v>
       </c>
       <c r="DL46" t="n" s="11">
-        <v>150.818</v>
+        <v>150.822</v>
       </c>
       <c r="DM46" t="n" s="11">
-        <v>153.033</v>
+        <v>153.037</v>
       </c>
       <c r="DN46" t="n" s="11">
-        <v>155.592</v>
+        <v>155.575</v>
       </c>
       <c r="DO46" t="n" s="11">
-        <v>158.863</v>
+        <v>159.06</v>
       </c>
       <c r="DP46" t="n" s="11">
-        <v>164.229</v>
+        <v>163.852</v>
       </c>
       <c r="DQ46" t="n" s="11">
-        <v>166.902</v>
+        <v>167.093</v>
       </c>
       <c r="DR46" t="n" s="11">
-        <v>168.975</v>
+        <v>168.933</v>
       </c>
       <c r="DS46" t="n" s="11">
-        <v>172.09</v>
+        <v>172.492</v>
       </c>
       <c r="DT46" t="n" s="11">
-        <v>169.824</v>
-      </c>
-      <c r="DU46" t="s" s="11">
-        <v>43</v>
+        <v>168.864</v>
+      </c>
+      <c r="DU46" t="n" s="11">
+        <v>166.062</v>
       </c>
       <c r="DV46" t="s" s="11">
         <v>43</v>
@@ -18246,55 +18246,55 @@
         <v>30.718</v>
       </c>
       <c r="DE47" t="n" s="11">
-        <v>30.905</v>
+        <v>30.903</v>
       </c>
       <c r="DF47" t="n" s="11">
-        <v>31.22</v>
+        <v>31.215</v>
       </c>
       <c r="DG47" t="n" s="11">
-        <v>31.521</v>
+        <v>31.518</v>
       </c>
       <c r="DH47" t="n" s="11">
-        <v>31.549</v>
+        <v>31.609</v>
       </c>
       <c r="DI47" t="n" s="11">
-        <v>31.97</v>
+        <v>31.971</v>
       </c>
       <c r="DJ47" t="n" s="11">
-        <v>32.496</v>
+        <v>32.377</v>
       </c>
       <c r="DK47" t="n" s="11">
-        <v>33.286</v>
+        <v>33.017</v>
       </c>
       <c r="DL47" t="n" s="11">
-        <v>32.92</v>
+        <v>33.672</v>
       </c>
       <c r="DM47" t="n" s="11">
-        <v>34.115</v>
+        <v>33.894</v>
       </c>
       <c r="DN47" t="n" s="11">
-        <v>34.746</v>
+        <v>34.489</v>
       </c>
       <c r="DO47" t="n" s="11">
-        <v>35.47</v>
+        <v>34.654</v>
       </c>
       <c r="DP47" t="n" s="11">
-        <v>32.998</v>
+        <v>34.586</v>
       </c>
       <c r="DQ47" t="n" s="11">
-        <v>36.074</v>
+        <v>35.609</v>
       </c>
       <c r="DR47" t="n" s="11">
-        <v>35.709</v>
+        <v>35.42</v>
       </c>
       <c r="DS47" t="n" s="11">
-        <v>36.917</v>
+        <v>35.838</v>
       </c>
       <c r="DT47" t="n" s="11">
-        <v>33.632</v>
-      </c>
-      <c r="DU47" t="s" s="11">
-        <v>43</v>
+        <v>35.732</v>
+      </c>
+      <c r="DU47" t="n" s="11">
+        <v>35.308</v>
       </c>
       <c r="DV47" t="s" s="11">
         <v>43</v>
@@ -18626,55 +18626,55 @@
         <v>341.7</v>
       </c>
       <c r="DE48" t="n" s="11">
-        <v>344.83</v>
+        <v>344.832</v>
       </c>
       <c r="DF48" t="n" s="11">
-        <v>348.725</v>
+        <v>348.73</v>
       </c>
       <c r="DG48" t="n" s="11">
-        <v>352.023</v>
+        <v>352.026</v>
       </c>
       <c r="DH48" t="n" s="11">
-        <v>355.748</v>
+        <v>355.687</v>
       </c>
       <c r="DI48" t="n" s="11">
-        <v>359.221</v>
+        <v>359.226</v>
       </c>
       <c r="DJ48" t="n" s="11">
-        <v>363.01</v>
+        <v>363.149</v>
       </c>
       <c r="DK48" t="n" s="11">
-        <v>367.23</v>
+        <v>367.534</v>
       </c>
       <c r="DL48" t="n" s="11">
-        <v>375.117</v>
+        <v>374.182</v>
       </c>
       <c r="DM48" t="n" s="11">
-        <v>376.121</v>
+        <v>376.293</v>
       </c>
       <c r="DN48" t="n" s="11">
-        <v>376.671</v>
+        <v>377.19</v>
       </c>
       <c r="DO48" t="n" s="11">
-        <v>379.896</v>
+        <v>381.878</v>
       </c>
       <c r="DP48" t="n" s="11">
-        <v>382.437</v>
+        <v>379.458</v>
       </c>
       <c r="DQ48" t="n" s="11">
-        <v>386.07</v>
+        <v>386.659</v>
       </c>
       <c r="DR48" t="n" s="11">
-        <v>390.873</v>
+        <v>391.557</v>
       </c>
       <c r="DS48" t="n" s="11">
-        <v>390.003</v>
+        <v>393.325</v>
       </c>
       <c r="DT48" t="n" s="11">
-        <v>404.183</v>
-      </c>
-      <c r="DU48" t="s" s="11">
-        <v>43</v>
+        <v>399.544</v>
+      </c>
+      <c r="DU48" t="n" s="11">
+        <v>398.117</v>
       </c>
       <c r="DV48" t="s" s="11">
         <v>43</v>
@@ -19006,55 +19006,55 @@
         <v>141.266</v>
       </c>
       <c r="DE49" t="n" s="11">
-        <v>145.129</v>
+        <v>145.125</v>
       </c>
       <c r="DF49" t="n" s="11">
-        <v>144.753</v>
+        <v>144.745</v>
       </c>
       <c r="DG49" t="n" s="11">
-        <v>148.88</v>
+        <v>148.876</v>
       </c>
       <c r="DH49" t="n" s="11">
-        <v>147.816</v>
+        <v>147.919</v>
       </c>
       <c r="DI49" t="n" s="11">
-        <v>145.943</v>
+        <v>145.941</v>
       </c>
       <c r="DJ49" t="n" s="11">
-        <v>145.906</v>
+        <v>145.707</v>
       </c>
       <c r="DK49" t="n" s="11">
-        <v>140.513</v>
+        <v>140.155</v>
       </c>
       <c r="DL49" t="n" s="11">
-        <v>141.488</v>
+        <v>142.82</v>
       </c>
       <c r="DM49" t="n" s="11">
-        <v>141.471</v>
+        <v>140.799</v>
       </c>
       <c r="DN49" t="n" s="11">
-        <v>141.212</v>
+        <v>140.325</v>
       </c>
       <c r="DO49" t="n" s="11">
-        <v>141.91</v>
+        <v>141.361</v>
       </c>
       <c r="DP49" t="n" s="11">
-        <v>123.764</v>
+        <v>127.357</v>
       </c>
       <c r="DQ49" t="n" s="11">
-        <v>132.965</v>
+        <v>130.655</v>
       </c>
       <c r="DR49" t="n" s="11">
-        <v>129.219</v>
+        <v>127.894</v>
       </c>
       <c r="DS49" t="n" s="11">
-        <v>126.418</v>
+        <v>125.607</v>
       </c>
       <c r="DT49" t="n" s="11">
-        <v>123.246</v>
-      </c>
-      <c r="DU49" t="s" s="11">
-        <v>43</v>
+        <v>129.628</v>
+      </c>
+      <c r="DU49" t="n" s="11">
+        <v>140.017</v>
       </c>
       <c r="DV49" t="s" s="11">
         <v>43</v>
@@ -19356,85 +19356,85 @@
         <v>-20.301</v>
       </c>
       <c r="CU50" t="n" s="11">
-        <v>-21.162</v>
+        <v>-21.163</v>
       </c>
       <c r="CV50" t="n" s="11">
-        <v>-19.979</v>
+        <v>-19.98</v>
       </c>
       <c r="CW50" t="n" s="11">
-        <v>-21.897</v>
+        <v>-21.894</v>
       </c>
       <c r="CX50" t="n" s="11">
-        <v>-21.773</v>
+        <v>-21.749</v>
       </c>
       <c r="CY50" t="n" s="11">
-        <v>-21.417</v>
+        <v>-21.413</v>
       </c>
       <c r="CZ50" t="n" s="11">
-        <v>-22.47</v>
+        <v>-22.616</v>
       </c>
       <c r="DA50" t="n" s="11">
-        <v>-21.961</v>
+        <v>-22.012</v>
       </c>
       <c r="DB50" t="n" s="11">
-        <v>-23.684</v>
+        <v>-23.24</v>
       </c>
       <c r="DC50" t="n" s="11">
-        <v>-24.874</v>
+        <v>-24.465</v>
       </c>
       <c r="DD50" t="n" s="11">
-        <v>-24.799</v>
+        <v>-26.51</v>
       </c>
       <c r="DE50" t="n" s="11">
-        <v>-26.078</v>
+        <v>-25.712</v>
       </c>
       <c r="DF50" t="n" s="11">
-        <v>-26.268</v>
+        <v>-24.754</v>
       </c>
       <c r="DG50" t="n" s="11">
-        <v>-25.427</v>
+        <v>-23.824</v>
       </c>
       <c r="DH50" t="n" s="11">
-        <v>-25.261</v>
+        <v>-31.006</v>
       </c>
       <c r="DI50" t="n" s="11">
-        <v>-24.825</v>
+        <v>-22.906</v>
       </c>
       <c r="DJ50" t="n" s="11">
-        <v>-23.975</v>
+        <v>-20.482</v>
       </c>
       <c r="DK50" t="n" s="11">
-        <v>-21.57</v>
+        <v>-18.794</v>
       </c>
       <c r="DL50" t="n" s="11">
-        <v>-29.286</v>
+        <v>-40.669</v>
       </c>
       <c r="DM50" t="n" s="11">
-        <v>-25.726</v>
+        <v>-21.437</v>
       </c>
       <c r="DN50" t="n" s="11">
-        <v>-23.722</v>
+        <v>-17.406</v>
       </c>
       <c r="DO50" t="n" s="11">
-        <v>-19.041</v>
+        <v>-16.938</v>
       </c>
       <c r="DP50" t="n" s="11">
-        <v>-28.17</v>
+        <v>-43.797</v>
       </c>
       <c r="DQ50" t="n" s="11">
-        <v>-23.688</v>
+        <v>-17.273</v>
       </c>
       <c r="DR50" t="n" s="11">
-        <v>-20.967</v>
+        <v>-13.218</v>
       </c>
       <c r="DS50" t="n" s="11">
-        <v>-15.848</v>
+        <v>-14.594</v>
       </c>
       <c r="DT50" t="n" s="11">
-        <v>-34.837</v>
-      </c>
-      <c r="DU50" t="s" s="11">
-        <v>43</v>
+        <v>-49.993</v>
+      </c>
+      <c r="DU50" t="n" s="11">
+        <v>-24.758</v>
       </c>
       <c r="DV50" t="s" s="11">
         <v>43</v>
@@ -19736,85 +19736,85 @@
         <v>424.048</v>
       </c>
       <c r="CU51" t="n" s="11">
-        <v>425.452</v>
+        <v>425.451</v>
       </c>
       <c r="CV51" t="n" s="11">
-        <v>429.269</v>
+        <v>429.268</v>
       </c>
       <c r="CW51" t="n" s="11">
-        <v>433.184</v>
+        <v>433.187</v>
       </c>
       <c r="CX51" t="n" s="11">
-        <v>437.265</v>
+        <v>437.289</v>
       </c>
       <c r="CY51" t="n" s="11">
-        <v>440.331</v>
+        <v>440.335</v>
       </c>
       <c r="CZ51" t="n" s="11">
-        <v>445.483</v>
+        <v>445.337</v>
       </c>
       <c r="DA51" t="n" s="11">
-        <v>448.287</v>
+        <v>448.236</v>
       </c>
       <c r="DB51" t="n" s="11">
-        <v>452.125</v>
+        <v>452.569</v>
       </c>
       <c r="DC51" t="n" s="11">
-        <v>455.832</v>
+        <v>456.241</v>
       </c>
       <c r="DD51" t="n" s="11">
-        <v>458.167</v>
+        <v>456.456</v>
       </c>
       <c r="DE51" t="n" s="11">
-        <v>463.881</v>
+        <v>464.245</v>
       </c>
       <c r="DF51" t="n" s="11">
-        <v>467.21</v>
+        <v>468.721</v>
       </c>
       <c r="DG51" t="n" s="11">
-        <v>475.476</v>
+        <v>477.078</v>
       </c>
       <c r="DH51" t="n" s="11">
-        <v>478.303</v>
+        <v>472.6</v>
       </c>
       <c r="DI51" t="n" s="11">
-        <v>480.339</v>
+        <v>482.261</v>
       </c>
       <c r="DJ51" t="n" s="11">
-        <v>484.941</v>
+        <v>488.374</v>
       </c>
       <c r="DK51" t="n" s="11">
-        <v>486.173</v>
+        <v>488.895</v>
       </c>
       <c r="DL51" t="n" s="11">
-        <v>487.319</v>
+        <v>476.333</v>
       </c>
       <c r="DM51" t="n" s="11">
-        <v>491.866</v>
+        <v>495.655</v>
       </c>
       <c r="DN51" t="n" s="11">
-        <v>494.161</v>
+        <v>500.109</v>
       </c>
       <c r="DO51" t="n" s="11">
-        <v>502.765</v>
+        <v>506.301</v>
       </c>
       <c r="DP51" t="n" s="11">
-        <v>478.031</v>
+        <v>463.018</v>
       </c>
       <c r="DQ51" t="n" s="11">
-        <v>495.347</v>
+        <v>500.041</v>
       </c>
       <c r="DR51" t="n" s="11">
-        <v>499.125</v>
+        <v>506.233</v>
       </c>
       <c r="DS51" t="n" s="11">
-        <v>500.573</v>
+        <v>504.338</v>
       </c>
       <c r="DT51" t="n" s="11">
-        <v>492.592</v>
-      </c>
-      <c r="DU51" t="s" s="11">
-        <v>43</v>
+        <v>479.179</v>
+      </c>
+      <c r="DU51" t="n" s="11">
+        <v>513.376</v>
       </c>
       <c r="DV51" t="s" s="11">
         <v>43</v>
@@ -20116,85 +20116,85 @@
         <v>517.013</v>
       </c>
       <c r="CU52" t="n" s="11">
-        <v>519.211</v>
+        <v>519.21</v>
       </c>
       <c r="CV52" t="n" s="11">
-        <v>524.389</v>
+        <v>524.388</v>
       </c>
       <c r="CW52" t="n" s="11">
-        <v>529.481</v>
+        <v>529.484</v>
       </c>
       <c r="CX52" t="n" s="11">
-        <v>535.413</v>
+        <v>535.437</v>
       </c>
       <c r="CY52" t="n" s="11">
-        <v>539.991</v>
+        <v>539.995</v>
       </c>
       <c r="CZ52" t="n" s="11">
-        <v>546.24</v>
+        <v>546.094</v>
       </c>
       <c r="DA52" t="n" s="11">
-        <v>550.07</v>
+        <v>550.019</v>
       </c>
       <c r="DB52" t="n" s="11">
-        <v>554.396</v>
+        <v>554.84</v>
       </c>
       <c r="DC52" t="n" s="11">
-        <v>559.092</v>
+        <v>559.501</v>
       </c>
       <c r="DD52" t="n" s="11">
-        <v>562.358</v>
+        <v>560.647</v>
       </c>
       <c r="DE52" t="n" s="11">
-        <v>569.007</v>
+        <v>569.371</v>
       </c>
       <c r="DF52" t="n" s="11">
-        <v>573.419</v>
+        <v>574.932</v>
       </c>
       <c r="DG52" t="n" s="11">
-        <v>581.878</v>
+        <v>583.484</v>
       </c>
       <c r="DH52" t="n" s="11">
-        <v>585.875</v>
+        <v>580.174</v>
       </c>
       <c r="DI52" t="n" s="11">
-        <v>588.523</v>
+        <v>590.391</v>
       </c>
       <c r="DJ52" t="n" s="11">
-        <v>594.24</v>
+        <v>597.677</v>
       </c>
       <c r="DK52" t="n" s="11">
-        <v>597.052</v>
+        <v>599.887</v>
       </c>
       <c r="DL52" t="n" s="11">
-        <v>600.387</v>
+        <v>589.566</v>
       </c>
       <c r="DM52" t="n" s="11">
-        <v>606.165</v>
+        <v>609.259</v>
       </c>
       <c r="DN52" t="n" s="11">
-        <v>608.839</v>
+        <v>615.146</v>
       </c>
       <c r="DO52" t="n" s="11">
-        <v>618.947</v>
+        <v>623.092</v>
       </c>
       <c r="DP52" t="n" s="11">
-        <v>593.167</v>
+        <v>578.328</v>
       </c>
       <c r="DQ52" t="n" s="11">
-        <v>616.113</v>
+        <v>619.498</v>
       </c>
       <c r="DR52" t="n" s="11">
-        <v>618.816</v>
+        <v>626.609</v>
       </c>
       <c r="DS52" t="n" s="11">
-        <v>620.461</v>
+        <v>625.198</v>
       </c>
       <c r="DT52" t="n" s="11">
-        <v>616.389</v>
-      </c>
-      <c r="DU52" t="s" s="11">
-        <v>43</v>
+        <v>605.816</v>
+      </c>
+      <c r="DU52" t="n" s="11">
+        <v>640.027</v>
       </c>
       <c r="DV52" t="s" s="11">
         <v>43</v>
@@ -20502,79 +20502,79 @@
         <v>14.525</v>
       </c>
       <c r="CW53" t="n" s="11">
-        <v>14.523</v>
+        <v>14.522</v>
       </c>
       <c r="CX53" t="n" s="11">
-        <v>14.446</v>
+        <v>14.45</v>
       </c>
       <c r="CY53" t="n" s="11">
-        <v>14.116</v>
+        <v>14.123</v>
       </c>
       <c r="CZ53" t="n" s="11">
-        <v>14.009</v>
+        <v>14.001</v>
       </c>
       <c r="DA53" t="n" s="11">
-        <v>14.102</v>
+        <v>14.073</v>
       </c>
       <c r="DB53" t="n" s="11">
-        <v>14.45</v>
+        <v>14.468</v>
       </c>
       <c r="DC53" t="n" s="11">
-        <v>14.941</v>
+        <v>15.011</v>
       </c>
       <c r="DD53" t="n" s="11">
-        <v>15.256</v>
+        <v>15.206</v>
       </c>
       <c r="DE53" t="n" s="11">
-        <v>15.23</v>
+        <v>15.159</v>
       </c>
       <c r="DF53" t="n" s="11">
-        <v>15.415</v>
+        <v>15.442</v>
       </c>
       <c r="DG53" t="n" s="11">
-        <v>13.924</v>
+        <v>14.046</v>
       </c>
       <c r="DH53" t="n" s="11">
-        <v>13.945</v>
+        <v>13.867</v>
       </c>
       <c r="DI53" t="n" s="11">
-        <v>14.04</v>
+        <v>13.984</v>
       </c>
       <c r="DJ53" t="n" s="11">
-        <v>14.357</v>
+        <v>14.374</v>
       </c>
       <c r="DK53" t="n" s="11">
-        <v>15.072</v>
+        <v>15.14</v>
       </c>
       <c r="DL53" t="n" s="11">
-        <v>15.472</v>
+        <v>15.435</v>
       </c>
       <c r="DM53" t="n" s="11">
-        <v>15.49</v>
+        <v>15.481</v>
       </c>
       <c r="DN53" t="n" s="11">
-        <v>15.479</v>
+        <v>15.487</v>
       </c>
       <c r="DO53" t="n" s="11">
-        <v>14.951</v>
+        <v>14.953</v>
       </c>
       <c r="DP53" t="n" s="11">
-        <v>14.909</v>
+        <v>14.902</v>
       </c>
       <c r="DQ53" t="n" s="11">
-        <v>14.948</v>
+        <v>14.96</v>
       </c>
       <c r="DR53" t="n" s="11">
-        <v>14.981</v>
+        <v>14.989</v>
       </c>
       <c r="DS53" t="n" s="11">
-        <v>15.177</v>
+        <v>15.187</v>
       </c>
       <c r="DT53" t="n" s="11">
-        <v>15.23</v>
-      </c>
-      <c r="DU53" t="s" s="11">
-        <v>43</v>
+        <v>15.178</v>
+      </c>
+      <c r="DU53" t="n" s="11">
+        <v>15.234</v>
       </c>
       <c r="DV53" t="s" s="11">
         <v>43</v>
@@ -20876,85 +20876,85 @@
         <v>43.704</v>
       </c>
       <c r="CU54" t="n" s="11">
-        <v>43.161</v>
+        <v>43.16</v>
       </c>
       <c r="CV54" t="n" s="11">
-        <v>45.019</v>
+        <v>45.018</v>
       </c>
       <c r="CW54" t="n" s="11">
-        <v>45.296</v>
+        <v>45.298</v>
       </c>
       <c r="CX54" t="n" s="11">
-        <v>46.352</v>
+        <v>46.38</v>
       </c>
       <c r="CY54" t="n" s="11">
-        <v>46.315</v>
+        <v>46.326</v>
       </c>
       <c r="CZ54" t="n" s="11">
-        <v>46.511</v>
+        <v>46.357</v>
       </c>
       <c r="DA54" t="n" s="11">
-        <v>47.798</v>
+        <v>47.718</v>
       </c>
       <c r="DB54" t="n" s="11">
-        <v>47.978</v>
+        <v>48.44</v>
       </c>
       <c r="DC54" t="n" s="11">
-        <v>49.406</v>
+        <v>49.885</v>
       </c>
       <c r="DD54" t="n" s="11">
-        <v>49.924</v>
+        <v>48.163</v>
       </c>
       <c r="DE54" t="n" s="11">
-        <v>50.982</v>
+        <v>51.274</v>
       </c>
       <c r="DF54" t="n" s="11">
-        <v>52.849</v>
+        <v>54.384</v>
       </c>
       <c r="DG54" t="n" s="11">
-        <v>54.806</v>
+        <v>56.528</v>
       </c>
       <c r="DH54" t="n" s="11">
-        <v>56.022</v>
+        <v>50.277</v>
       </c>
       <c r="DI54" t="n" s="11">
-        <v>56.502</v>
+        <v>58.367</v>
       </c>
       <c r="DJ54" t="n" s="11">
-        <v>56.42</v>
+        <v>59.793</v>
       </c>
       <c r="DK54" t="n" s="11">
-        <v>54.884</v>
+        <v>57.526</v>
       </c>
       <c r="DL54" t="n" s="11">
-        <v>53.983</v>
+        <v>43.427</v>
       </c>
       <c r="DM54" t="n" s="11">
-        <v>53.762</v>
+        <v>57.434</v>
       </c>
       <c r="DN54" t="n" s="11">
-        <v>56.01</v>
+        <v>61.64</v>
       </c>
       <c r="DO54" t="n" s="11">
-        <v>66.437</v>
+        <v>69.3</v>
       </c>
       <c r="DP54" t="n" s="11">
-        <v>100.861</v>
+        <v>87.255</v>
       </c>
       <c r="DQ54" t="n" s="11">
-        <v>73.758</v>
+        <v>78.119</v>
       </c>
       <c r="DR54" t="n" s="11">
-        <v>86.122</v>
+        <v>92.729</v>
       </c>
       <c r="DS54" t="n" s="11">
-        <v>96.031</v>
+        <v>99.043</v>
       </c>
       <c r="DT54" t="n" s="11">
-        <v>86.298</v>
-      </c>
-      <c r="DU54" t="s" s="11">
-        <v>43</v>
+        <v>72.41</v>
+      </c>
+      <c r="DU54" t="n" s="11">
+        <v>67.555</v>
       </c>
       <c r="DV54" t="s" s="11">
         <v>43</v>
@@ -21256,85 +21256,85 @@
         <v>438.333</v>
       </c>
       <c r="CU55" t="n" s="11">
-        <v>439.765</v>
+        <v>439.764</v>
       </c>
       <c r="CV55" t="n" s="11">
-        <v>443.794</v>
+        <v>443.793</v>
       </c>
       <c r="CW55" t="n" s="11">
-        <v>447.707</v>
+        <v>447.709</v>
       </c>
       <c r="CX55" t="n" s="11">
-        <v>451.711</v>
+        <v>451.739</v>
       </c>
       <c r="CY55" t="n" s="11">
-        <v>454.447</v>
+        <v>454.458</v>
       </c>
       <c r="CZ55" t="n" s="11">
-        <v>459.492</v>
+        <v>459.338</v>
       </c>
       <c r="DA55" t="n" s="11">
-        <v>462.389</v>
+        <v>462.309</v>
       </c>
       <c r="DB55" t="n" s="11">
-        <v>466.575</v>
+        <v>467.037</v>
       </c>
       <c r="DC55" t="n" s="11">
-        <v>470.773</v>
+        <v>471.252</v>
       </c>
       <c r="DD55" t="n" s="11">
-        <v>473.423</v>
+        <v>471.662</v>
       </c>
       <c r="DE55" t="n" s="11">
-        <v>479.111</v>
+        <v>479.404</v>
       </c>
       <c r="DF55" t="n" s="11">
-        <v>482.625</v>
+        <v>484.163</v>
       </c>
       <c r="DG55" t="n" s="11">
-        <v>489.4</v>
+        <v>491.124</v>
       </c>
       <c r="DH55" t="n" s="11">
-        <v>492.248</v>
+        <v>486.467</v>
       </c>
       <c r="DI55" t="n" s="11">
-        <v>494.379</v>
+        <v>496.245</v>
       </c>
       <c r="DJ55" t="n" s="11">
-        <v>499.298</v>
+        <v>502.748</v>
       </c>
       <c r="DK55" t="n" s="11">
-        <v>501.245</v>
+        <v>504.035</v>
       </c>
       <c r="DL55" t="n" s="11">
-        <v>502.791</v>
+        <v>491.768</v>
       </c>
       <c r="DM55" t="n" s="11">
-        <v>507.356</v>
+        <v>511.136</v>
       </c>
       <c r="DN55" t="n" s="11">
-        <v>509.64</v>
+        <v>515.596</v>
       </c>
       <c r="DO55" t="n" s="11">
-        <v>517.716</v>
+        <v>521.254</v>
       </c>
       <c r="DP55" t="n" s="11">
-        <v>492.94</v>
+        <v>477.92</v>
       </c>
       <c r="DQ55" t="n" s="11">
-        <v>510.295</v>
+        <v>515.001</v>
       </c>
       <c r="DR55" t="n" s="11">
-        <v>514.106</v>
+        <v>521.222</v>
       </c>
       <c r="DS55" t="n" s="11">
-        <v>515.75</v>
+        <v>519.525</v>
       </c>
       <c r="DT55" t="n" s="11">
-        <v>507.822</v>
-      </c>
-      <c r="DU55" t="s" s="11">
-        <v>43</v>
+        <v>494.357</v>
+      </c>
+      <c r="DU55" t="n" s="11">
+        <v>528.61</v>
       </c>
       <c r="DV55" t="s" s="11">
         <v>43</v>
@@ -21657,64 +21657,64 @@
         <v>10.3</v>
       </c>
       <c r="DB56" t="n" s="11">
+        <v>10.4</v>
+      </c>
+      <c r="DC56" t="n" s="11">
+        <v>10.6</v>
+      </c>
+      <c r="DD56" t="n" s="11">
+        <v>10.2</v>
+      </c>
+      <c r="DE56" t="n" s="11">
+        <v>10.7</v>
+      </c>
+      <c r="DF56" t="n" s="11">
+        <v>11.2</v>
+      </c>
+      <c r="DG56" t="n" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="DH56" t="n" s="11">
         <v>10.3</v>
       </c>
-      <c r="DC56" t="n" s="11">
-        <v>10.5</v>
-      </c>
-      <c r="DD56" t="n" s="11">
-        <v>10.5</v>
-      </c>
-      <c r="DE56" t="n" s="11">
-        <v>10.6</v>
-      </c>
-      <c r="DF56" t="n" s="11">
-        <v>11.0</v>
-      </c>
-      <c r="DG56" t="n" s="11">
+      <c r="DI56" t="n" s="11">
+        <v>11.8</v>
+      </c>
+      <c r="DJ56" t="n" s="11">
+        <v>11.9</v>
+      </c>
+      <c r="DK56" t="n" s="11">
+        <v>11.4</v>
+      </c>
+      <c r="DL56" t="n" s="11">
+        <v>8.8</v>
+      </c>
+      <c r="DM56" t="n" s="11">
         <v>11.2</v>
       </c>
-      <c r="DH56" t="n" s="11">
-        <v>11.4</v>
-      </c>
-      <c r="DI56" t="n" s="11">
-        <v>11.4</v>
-      </c>
-      <c r="DJ56" t="n" s="11">
-        <v>11.3</v>
-      </c>
-      <c r="DK56" t="n" s="11">
-        <v>10.9</v>
-      </c>
-      <c r="DL56" t="n" s="11">
-        <v>10.7</v>
-      </c>
-      <c r="DM56" t="n" s="11">
-        <v>10.6</v>
-      </c>
       <c r="DN56" t="n" s="11">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="DO56" t="n" s="11">
+        <v>13.3</v>
+      </c>
+      <c r="DP56" t="n" s="11">
+        <v>18.3</v>
+      </c>
+      <c r="DQ56" t="n" s="11">
+        <v>15.2</v>
+      </c>
+      <c r="DR56" t="n" s="11">
+        <v>17.8</v>
+      </c>
+      <c r="DS56" t="n" s="11">
+        <v>19.1</v>
+      </c>
+      <c r="DT56" t="n" s="11">
+        <v>14.6</v>
+      </c>
+      <c r="DU56" t="n" s="11">
         <v>12.8</v>
-      </c>
-      <c r="DP56" t="n" s="11">
-        <v>20.5</v>
-      </c>
-      <c r="DQ56" t="n" s="11">
-        <v>14.5</v>
-      </c>
-      <c r="DR56" t="n" s="11">
-        <v>16.8</v>
-      </c>
-      <c r="DS56" t="n" s="11">
-        <v>18.6</v>
-      </c>
-      <c r="DT56" t="n" s="11">
-        <v>17.0</v>
-      </c>
-      <c r="DU56" t="s" s="11">
-        <v>43</v>
       </c>
       <c r="DV56" t="s" s="11">
         <v>43</v>
@@ -21784,7 +21784,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 09:46:03&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:49:01&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>